--- a/ITSupplySales.xlsx
+++ b/ITSupplySales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/22agerstner/Dropbox/Mac/Desktop/SQL/finalProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF80C485-BC2F-B349-9CB5-602BBAC24142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8C873B-7E61-1143-B499-9FC3D6274222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E099D27F-1533-449C-9EEC-937D79393CB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="128">
   <si>
     <t>Al Tuple</t>
   </si>
@@ -417,6 +417,9 @@
   </si>
   <si>
     <t xml:space="preserve">WY  </t>
+  </si>
+  <si>
+    <t>employeeID</t>
   </si>
 </sst>
 </file>
@@ -464,14 +467,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -927,41 +928,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A3F2CA-96C0-5A49-B546-124EA8FA7823}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
     <col min="5" max="5" width="12.1640625" customWidth="1"/>
     <col min="6" max="6" width="21.83203125" customWidth="1"/>
     <col min="7" max="7" width="13.1640625" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
@@ -990,13 +992,13 @@
       <c r="J2" t="s">
         <v>31</v>
       </c>
-      <c r="L2" t="s">
+      <c r="K2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B3" t="s">
         <v>38</v>
@@ -1026,15 +1028,12 @@
         <v>5</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2</v>
+        <v>1002</v>
       </c>
       <c r="B4" t="s">
         <v>39</v>
@@ -1063,16 +1062,13 @@
       <c r="J4" t="s">
         <v>25</v>
       </c>
-      <c r="K4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
+      <c r="K4">
+        <v>1001</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>3</v>
+        <v>1003</v>
       </c>
       <c r="B5" t="s">
         <v>40</v>
@@ -1101,16 +1097,13 @@
       <c r="J5" t="s">
         <v>29</v>
       </c>
-      <c r="K5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
+      <c r="K5">
+        <v>1001</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>4</v>
+        <v>1004</v>
       </c>
       <c r="B6" t="s">
         <v>41</v>
@@ -1139,16 +1132,13 @@
       <c r="J6" t="s">
         <v>10</v>
       </c>
-      <c r="K6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
+      <c r="K6">
+        <v>1001</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>5</v>
+        <v>1005</v>
       </c>
       <c r="B7" t="s">
         <v>42</v>
@@ -1177,16 +1167,13 @@
       <c r="J7" t="s">
         <v>21</v>
       </c>
-      <c r="K7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
+      <c r="K7">
+        <v>1001</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>6</v>
+        <v>1006</v>
       </c>
       <c r="B8" t="s">
         <v>43</v>
@@ -1200,7 +1187,7 @@
       <c r="E8" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" t="s">
         <v>78</v>
       </c>
       <c r="G8" t="s">
@@ -1215,16 +1202,13 @@
       <c r="J8" t="s">
         <v>14</v>
       </c>
-      <c r="K8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
+      <c r="K8">
+        <v>1001</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>7</v>
+        <v>1007</v>
       </c>
       <c r="B9" t="s">
         <v>44</v>
@@ -1253,11 +1237,8 @@
       <c r="J9" t="s">
         <v>1</v>
       </c>
-      <c r="K9" t="s">
-        <v>9</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
+      <c r="K9">
+        <v>1001</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1267,10 +1248,6 @@
       <c r="I12" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1285,16 +1262,16 @@
   <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -1306,7 +1283,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B3" t="s">
         <v>93</v>
@@ -1314,7 +1291,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B4" t="s">
         <v>94</v>
@@ -1322,7 +1299,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B5" t="s">
         <v>95</v>
@@ -1330,7 +1307,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B6" t="s">
         <v>96</v>
@@ -1338,7 +1315,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B7" t="s">
         <v>97</v>
@@ -1346,7 +1323,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B8" t="s">
         <v>98</v>
@@ -1354,7 +1331,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B9" t="s">
         <v>99</v>
@@ -1362,7 +1339,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B10" t="s">
         <v>100</v>
@@ -1370,7 +1347,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B11" t="s">
         <v>101</v>
@@ -1378,7 +1355,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B12" t="s">
         <v>102</v>
@@ -1386,7 +1363,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B13" t="s">
         <v>103</v>
@@ -1394,7 +1371,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B14" t="s">
         <v>104</v>
@@ -1402,7 +1379,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B15" t="s">
         <v>105</v>
@@ -1410,7 +1387,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B16" t="s">
         <v>106</v>
@@ -1418,7 +1395,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B17" t="s">
         <v>107</v>
@@ -1426,7 +1403,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B18" t="s">
         <v>108</v>
@@ -1434,7 +1411,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B19" t="s">
         <v>109</v>
@@ -1442,7 +1419,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B20" t="s">
         <v>110</v>
@@ -1450,7 +1427,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B21" t="s">
         <v>111</v>
@@ -1458,7 +1435,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B22" t="s">
         <v>112</v>
@@ -1466,7 +1443,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B23" t="s">
         <v>113</v>
@@ -1474,7 +1451,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B24" t="s">
         <v>114</v>
@@ -1482,7 +1459,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B25" t="s">
         <v>115</v>
@@ -1490,7 +1467,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B26" t="s">
         <v>116</v>
@@ -1498,7 +1475,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B27" t="s">
         <v>117</v>
@@ -1506,7 +1483,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B28" t="s">
         <v>118</v>
@@ -1514,7 +1491,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B29" t="s">
         <v>119</v>
@@ -1522,7 +1499,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B30" t="s">
         <v>120</v>
@@ -1530,7 +1507,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B31" t="s">
         <v>121</v>
@@ -1538,7 +1515,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B32" t="s">
         <v>122</v>
@@ -1546,7 +1523,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B33" t="s">
         <v>123</v>
@@ -1554,7 +1531,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B34" t="s">
         <v>124</v>
@@ -1562,7 +1539,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B35" t="s">
         <v>125</v>
@@ -1570,7 +1547,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B36" t="s">
         <v>126</v>
@@ -1578,7 +1555,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>2</v>
+        <v>1002</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
@@ -1586,7 +1563,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>2</v>
+        <v>1002</v>
       </c>
       <c r="B38" t="s">
         <v>84</v>
@@ -1594,7 +1571,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>2</v>
+        <v>1002</v>
       </c>
       <c r="B39" t="s">
         <v>85</v>
@@ -1602,7 +1579,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>3</v>
+        <v>1003</v>
       </c>
       <c r="B40" t="s">
         <v>27</v>
@@ -1610,7 +1587,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>4</v>
+        <v>1004</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
@@ -1618,7 +1595,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>4</v>
+        <v>1004</v>
       </c>
       <c r="B42" t="s">
         <v>86</v>
@@ -1626,7 +1603,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>4</v>
+        <v>1004</v>
       </c>
       <c r="B43" t="s">
         <v>87</v>
@@ -1634,7 +1611,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>5</v>
+        <v>1005</v>
       </c>
       <c r="B44" t="s">
         <v>88</v>
@@ -1642,7 +1619,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>5</v>
+        <v>1005</v>
       </c>
       <c r="B45" t="s">
         <v>89</v>
@@ -1650,7 +1627,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>5</v>
+        <v>1005</v>
       </c>
       <c r="B46" t="s">
         <v>68</v>
@@ -1658,7 +1635,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>6</v>
+        <v>1006</v>
       </c>
       <c r="B47" t="s">
         <v>90</v>
@@ -1666,7 +1643,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>6</v>
+        <v>1006</v>
       </c>
       <c r="B48" t="s">
         <v>70</v>
@@ -1674,7 +1651,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>6</v>
+        <v>1006</v>
       </c>
       <c r="B49" t="s">
         <v>91</v>
@@ -1682,7 +1659,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>7</v>
+        <v>1007</v>
       </c>
       <c r="B50" t="s">
         <v>60</v>
@@ -1690,7 +1667,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>7</v>
+        <v>1007</v>
       </c>
       <c r="B51" t="s">
         <v>72</v>
@@ -1698,7 +1675,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>7</v>
+        <v>1007</v>
       </c>
       <c r="B52" t="s">
         <v>92</v>
